--- a/Weekly Status Updates/Actual vs Planned/plan vs actual analysis.xlsx
+++ b/Weekly Status Updates/Actual vs Planned/plan vs actual analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonat\Desktop\Software Enginering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2143DB68-7723-4006-8C75-3482885136A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D307649-AE74-4EFE-8F7D-5BF39746933C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
